--- a/output/StructureDefinition-PADI-Composition.xlsx
+++ b/output/StructureDefinition-PADI-Composition.xlsx
@@ -1437,46 +1437,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.3515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="26.7890625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.78125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.8046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="72.17578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-PADI-Composition.xlsx
+++ b/output/StructureDefinition-PADI-Composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="434">
   <si>
     <t>Path</t>
   </si>
@@ -245,7 +245,7 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
+    <t>language</t>
   </si>
   <si>
     <t>The base language in which the resource is written.</t>
@@ -365,6 +365,77 @@
 </t>
   </si>
   <si>
+    <t>version_number_extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ccda/StructureDefinition/VersionNumber}
+</t>
+  </si>
+  <si>
+    <t>data_enterer_extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ccda/StructureDefinition/DataEntererExtension}
+</t>
+  </si>
+  <si>
+    <t>informant_extension</t>
+  </si>
+  <si>
+    <t>informant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ccda/StructureDefinition/InformantExtension}
+</t>
+  </si>
+  <si>
+    <t>information_recipient_extension</t>
+  </si>
+  <si>
+    <t>informationRecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ccda/StructureDefinition/InformationRecipientExtension}
+</t>
+  </si>
+  <si>
+    <t>participant_extension</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ccda/StructureDefinition/ParticipantExtension}
+</t>
+  </si>
+  <si>
+    <t>performer_extension</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ccda/StructureDefinition/PerformerExtension}
+</t>
+  </si>
+  <si>
+    <t>authorization_extension</t>
+  </si>
+  <si>
+    <t>authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ccda/StructureDefinition/AuthorizationExtension}
+</t>
+  </si>
+  <si>
+    <t>order_extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ccda/StructureDefinition/OrderExtension}
+</t>
+  </si>
+  <si>
     <t>Composition.modifierExtension</t>
   </si>
   <si>
@@ -382,7 +453,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -395,7 +466,7 @@
 </t>
   </si>
   <si>
-    <t>Version-independent identifier for the Composition</t>
+    <t>identifier</t>
   </si>
   <si>
     <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
@@ -601,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t>Composition editing time</t>
+    <t>date</t>
   </si>
   <si>
     <t>The composition editing time, when the composition was last logically changed by the author.</t>
@@ -610,7 +681,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -662,7 +733,7 @@
     <t>Composition.title</t>
   </si>
   <si>
-    <t>Human Readable name/title</t>
+    <t>Document Title</t>
   </si>
   <si>
     <t>Official human-readable label for the composition.</t>
@@ -683,10 +754,10 @@
     <t>Composition.confidentiality</t>
   </si>
   <si>
-    <t>As defined by affinity domain</t>
-  </si>
-  <si>
-    <t>The code specifying the level of confidentiality of the Composition.</t>
+    <t>Use the confidentiality codes in Meta.security</t>
+  </si>
+  <si>
+    <t>Use the confidentiality codes in Meta.security (https://hl7.org/fhir/security-labels.html)</t>
   </si>
   <si>
     <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).  This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
@@ -723,11 +794,8 @@
     <t>Identifies responsibility for the accuracy of the composition content.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:mode}
+    <t xml:space="preserve">value:mode}
 </t>
-  </si>
-  <si>
-    <t>Slice based on $this pattern</t>
   </si>
   <si>
     <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
@@ -850,14 +918,32 @@
     <t>legal_attester</t>
   </si>
   <si>
+    <t>attester</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole)
 </t>
   </si>
   <si>
+    <t>party</t>
+  </si>
+  <si>
     <t>professional_attester</t>
   </si>
   <si>
+    <t>professional</t>
+  </si>
+  <si>
     <t>personal_attester</t>
+  </si>
+  <si>
+    <t>personal</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
@@ -867,11 +953,11 @@
     <t>Composition.custodian</t>
   </si>
   <si>
+    <t>custodian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
-  </si>
-  <si>
-    <t>Organization which maintains the composition</t>
   </si>
   <si>
     <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>
@@ -1428,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1438,9 +1524,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.16015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="41.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1464,7 +1550,7 @@
     <col min="25" max="25" width="73.27734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.78125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2522,7 +2608,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>41</v>
@@ -2623,45 +2709,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2709,7 +2793,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2727,7 +2811,7 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
@@ -2741,9 +2825,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2761,20 +2847,18 @@
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2823,75 +2907,75 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="E13" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>41</v>
       </c>
@@ -2915,13 +2999,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2939,50 +3023,54 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="E14" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>54</v>
@@ -2991,23 +3079,19 @@
         <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
       </c>
@@ -3031,13 +3115,13 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -3055,45 +3139,49 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="E15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3101,29 +3189,25 @@
         <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
       </c>
@@ -3147,13 +3231,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -3171,7 +3255,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3183,38 +3267,42 @@
         <v>41</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>54</v>
@@ -3223,23 +3311,19 @@
         <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3287,50 +3371,54 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>54</v>
@@ -3339,21 +3427,19 @@
         <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>41</v>
       </c>
@@ -3401,50 +3487,54 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="E18" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>54</v>
@@ -3453,23 +3543,19 @@
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3517,72 +3603,74 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3631,10 +3719,10 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>43</v>
@@ -3643,27 +3731,27 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3686,16 +3774,16 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3745,10 +3833,10 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>53</v>
@@ -3760,24 +3848,24 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3785,7 +3873,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>53</v>
@@ -3794,7 +3882,7 @@
         <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>54</v>
@@ -3803,15 +3891,17 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3835,13 +3925,13 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3859,10 +3949,10 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>53</v>
@@ -3874,24 +3964,24 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3899,34 +3989,34 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3951,37 +4041,37 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3990,24 +4080,24 @@
         <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4018,7 +4108,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
@@ -4027,19 +4117,23 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4063,13 +4157,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -4087,73 +4181,75 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4201,74 +4297,72 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4317,39 +4411,39 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4369,20 +4463,22 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4407,13 +4503,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4431,7 +4527,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>53</v>
@@ -4446,24 +4542,24 @@
         <v>65</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4471,32 +4567,32 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4545,13 +4641,13 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4560,58 +4656,60 @@
         <v>65</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4659,10 +4757,10 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>53</v>
@@ -4677,59 +4775,57 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4753,13 +4849,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4777,13 +4873,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4795,13 +4891,13 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4809,7 +4905,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4820,7 +4916,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
@@ -4832,16 +4928,20 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4877,43 +4977,41 @@
         <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4921,18 +5019,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4944,17 +5042,15 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5003,25 +5099,25 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -5035,11 +5131,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5052,26 +5148,24 @@
         <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5119,7 +5213,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5137,7 +5231,7 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5151,40 +5245,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5209,13 +5305,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5233,28 +5329,28 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5263,9 +5359,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5273,13 +5369,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -5288,17 +5384,17 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5323,13 +5419,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5347,10 +5443,10 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>53</v>
@@ -5365,10 +5461,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5377,9 +5473,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5387,13 +5483,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5402,17 +5498,17 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5461,7 +5557,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5479,25 +5575,23 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5506,10 +5600,10 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5518,19 +5612,17 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5579,13 +5671,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5597,23 +5689,25 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5625,7 +5719,7 @@
         <v>53</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5634,16 +5728,20 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5691,31 +5789,31 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5723,18 +5821,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5746,17 +5844,15 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5805,25 +5901,25 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5837,11 +5933,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5854,26 +5950,24 @@
         <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5921,7 +6015,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5939,7 +6033,7 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -5953,40 +6047,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6011,13 +6107,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -6035,28 +6131,28 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6065,9 +6161,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6075,13 +6171,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6090,24 +6186,24 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>41</v>
@@ -6125,13 +6221,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6149,10 +6245,10 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>53</v>
@@ -6167,10 +6263,10 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6179,9 +6275,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6189,13 +6285,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6204,17 +6300,17 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6263,7 +6359,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6281,34 +6377,32 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>54</v>
@@ -6320,19 +6414,17 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6381,13 +6473,13 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6399,23 +6491,25 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6424,10 +6518,10 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6436,16 +6530,20 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
       </c>
@@ -6493,31 +6591,31 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6525,18 +6623,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -6548,17 +6646,15 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6607,25 +6703,25 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6639,11 +6735,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6656,26 +6752,24 @@
         <v>41</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6723,7 +6817,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6741,7 +6835,7 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -6755,40 +6849,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6813,13 +6909,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6837,28 +6933,28 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -6867,9 +6963,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6877,13 +6973,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -6892,24 +6988,24 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>41</v>
@@ -6927,13 +7023,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6951,10 +7047,10 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>53</v>
@@ -6969,10 +7065,10 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -6981,9 +7077,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6991,13 +7087,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7006,17 +7102,17 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7065,7 +7161,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7083,21 +7179,21 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7117,22 +7213,20 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7181,7 +7275,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7199,23 +7293,25 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7227,7 +7323,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -7236,18 +7332,20 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7295,7 +7393,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7313,13 +7411,13 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7327,7 +7425,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7353,10 +7451,10 @@
         <v>55</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7407,7 +7505,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7425,7 +7523,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
@@ -7439,11 +7537,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7465,13 +7563,13 @@
         <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7521,7 +7619,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7539,7 +7637,7 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
@@ -7553,11 +7651,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7579,16 +7677,16 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7637,7 +7735,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7667,9 +7765,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7683,7 +7781,7 @@
         <v>53</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -7695,21 +7793,21 @@
         <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>41</v>
@@ -7727,13 +7825,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7751,7 +7849,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>53</v>
@@ -7769,13 +7867,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7783,7 +7881,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7791,7 +7889,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>53</v>
@@ -7806,16 +7904,18 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>41</v>
       </c>
@@ -7863,10 +7963,10 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>53</v>
@@ -7881,21 +7981,21 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7903,34 +8003,32 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>41</v>
@@ -7979,13 +8077,13 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -7997,53 +8095,59 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="E58" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8091,7 +8195,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8103,19 +8207,19 @@
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8123,11 +8227,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8146,16 +8250,16 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8205,7 +8309,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8217,19 +8321,19 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>138</v>
+        <v>311</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8237,43 +8341,39 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8321,25 +8421,25 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
@@ -8353,11 +8453,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8373,19 +8473,19 @@
         <v>41</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8411,13 +8511,13 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>322</v>
+        <v>41</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8435,7 +8535,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8447,19 +8547,19 @@
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8467,39 +8567,43 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8547,31 +8651,31 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8579,7 +8683,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8587,10 +8691,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
@@ -8599,18 +8703,20 @@
         <v>41</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8635,13 +8741,13 @@
         <v>41</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>41</v>
@@ -8659,13 +8765,13 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
@@ -8677,13 +8783,13 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8691,7 +8797,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8699,10 +8805,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
@@ -8714,13 +8820,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8771,31 +8877,31 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>338</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8803,7 +8909,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8814,7 +8920,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>41</v>
@@ -8823,19 +8929,23 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
       </c>
@@ -8883,31 +8993,31 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -8915,18 +9025,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -8938,17 +9048,15 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -8997,25 +9105,25 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
@@ -9029,11 +9137,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9046,26 +9154,24 @@
         <v>41</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9113,7 +9219,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9131,7 +9237,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
@@ -9145,42 +9251,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>347</v>
+        <v>263</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>348</v>
+        <v>136</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9229,28 +9335,28 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9261,7 +9367,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9272,7 +9378,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>41</v>
@@ -9281,23 +9387,21 @@
         <v>41</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9321,13 +9425,13 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9345,13 +9449,13 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>41</v>
@@ -9363,13 +9467,13 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9377,7 +9481,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9388,7 +9492,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9397,21 +9501,19 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9459,13 +9561,13 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
@@ -9477,21 +9579,21 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9502,7 +9604,7 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9511,20 +9613,18 @@
         <v>41</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9573,13 +9673,13 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
@@ -9591,10 +9691,10 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>365</v>
+        <v>159</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9605,7 +9705,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9616,7 +9716,7 @@
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>41</v>
@@ -9628,17 +9728,15 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9687,28 +9785,28 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9719,7 +9817,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9742,20 +9840,16 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>373</v>
+        <v>253</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
@@ -9779,13 +9873,13 @@
         <v>41</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>378</v>
+        <v>41</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>41</v>
@@ -9803,7 +9897,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>372</v>
+        <v>255</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -9815,38 +9909,38 @@
         <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>41</v>
@@ -9858,20 +9952,18 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>381</v>
+        <v>257</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>382</v>
+        <v>258</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>41</v>
       </c>
@@ -9895,13 +9987,13 @@
         <v>41</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>41</v>
@@ -9919,28 +10011,28 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -9951,11 +10043,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9968,24 +10060,26 @@
         <v>41</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>389</v>
+        <v>262</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>390</v>
+        <v>263</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>41</v>
       </c>
@@ -10033,7 +10127,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>388</v>
+        <v>264</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10042,19 +10136,19 @@
         <v>43</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>393</v>
+        <v>96</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10065,11 +10159,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10088,19 +10182,19 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>41</v>
@@ -10125,13 +10219,13 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>41</v>
@@ -10149,7 +10243,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10158,7 +10252,7 @@
         <v>53</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>65</v>
@@ -10167,10 +10261,10 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>402</v>
+        <v>231</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10181,7 +10275,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10192,7 +10286,7 @@
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>41</v>
@@ -10204,18 +10298,20 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10239,13 +10335,13 @@
         <v>41</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>41</v>
@@ -10263,16 +10359,16 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>65</v>
@@ -10281,20 +10377,938 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>339</v>
+        <v>171</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN77" t="s" s="2">
+      <c r="L82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10304,7 +11318,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
